--- a/CE/data/summary.xlsx
+++ b/CE/data/summary.xlsx
@@ -14,66 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Итого шт</t>
-  </si>
-  <si>
-    <t>Итого деньги</t>
-  </si>
-  <si>
-    <t>Итого кг</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Итого, деньги на рд</t>
-  </si>
-  <si>
-    <t>Итого, шт на рд</t>
-  </si>
-  <si>
-    <t>Итого, кг на рд</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>ФО</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>5-30</t>
+  </si>
+  <si>
+    <t>30-100</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>ДВФО</t>
+  </si>
+  <si>
+    <t>ПФО</t>
+  </si>
+  <si>
+    <t>СЗФО</t>
+  </si>
+  <si>
+    <t>СФО</t>
+  </si>
+  <si>
+    <t>УФО</t>
+  </si>
+  <si>
+    <t>ЦФО</t>
+  </si>
+  <si>
+    <t>ЮФО</t>
   </si>
 </sst>
 </file>
@@ -431,348 +410,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2">
+        <v>348</v>
+      </c>
+      <c r="D2">
+        <v>189</v>
+      </c>
+      <c r="E2">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C3">
+        <v>6525</v>
+      </c>
+      <c r="D3">
+        <v>2340</v>
+      </c>
+      <c r="E3">
+        <v>990</v>
+      </c>
+      <c r="F3">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>59358</v>
-      </c>
-      <c r="C2">
-        <v>46202072</v>
-      </c>
-      <c r="D2">
-        <v>144583</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>3080138</v>
-      </c>
-      <c r="G2">
-        <v>3957</v>
-      </c>
-      <c r="H2">
-        <v>9639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>10130</v>
+      </c>
+      <c r="D4">
+        <v>2325</v>
+      </c>
+      <c r="E4">
+        <v>796</v>
+      </c>
+      <c r="F4">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>69675</v>
-      </c>
-      <c r="C3">
-        <v>54392422</v>
-      </c>
-      <c r="D3">
-        <v>175120</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>2862759</v>
-      </c>
-      <c r="G3">
-        <v>3667</v>
-      </c>
-      <c r="H3">
-        <v>9217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>7897</v>
+      </c>
+      <c r="D5">
+        <v>2304</v>
+      </c>
+      <c r="E5">
+        <v>903</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>85498</v>
-      </c>
-      <c r="C4">
-        <v>69655894</v>
-      </c>
-      <c r="D4">
-        <v>218230</v>
-      </c>
-      <c r="E4">
+      <c r="C6">
+        <v>3534</v>
+      </c>
+      <c r="D6">
+        <v>1389</v>
+      </c>
+      <c r="E6">
+        <v>464</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+      <c r="G6">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>3166177</v>
-      </c>
-      <c r="G4">
-        <v>3886</v>
-      </c>
-      <c r="H4">
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>80338</v>
-      </c>
-      <c r="C5">
-        <v>64368439</v>
-      </c>
-      <c r="D5">
-        <v>193070</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2925838</v>
-      </c>
-      <c r="G5">
-        <v>3652</v>
-      </c>
-      <c r="H5">
-        <v>8776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="C7">
+        <v>39886</v>
+      </c>
+      <c r="D7">
+        <v>14744</v>
+      </c>
+      <c r="E7">
+        <v>6870</v>
+      </c>
+      <c r="F7">
+        <v>629</v>
+      </c>
+      <c r="G7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>63299</v>
-      </c>
-      <c r="C6">
-        <v>48866915</v>
-      </c>
-      <c r="D6">
-        <v>167748</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>2571943</v>
-      </c>
-      <c r="G6">
-        <v>3332</v>
-      </c>
-      <c r="H6">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>75796</v>
-      </c>
-      <c r="C7">
-        <v>61554454</v>
-      </c>
-      <c r="D7">
-        <v>216781</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>2931164</v>
-      </c>
-      <c r="G7">
-        <v>3609</v>
-      </c>
-      <c r="H7">
-        <v>10323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>76605</v>
-      </c>
       <c r="C8">
-        <v>61035710</v>
+        <v>4979</v>
       </c>
       <c r="D8">
-        <v>192555</v>
+        <v>2017</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>689</v>
       </c>
       <c r="F8">
-        <v>2774350</v>
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>3482</v>
-      </c>
-      <c r="H8">
-        <v>8752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>73979</v>
-      </c>
-      <c r="C9">
-        <v>59642998</v>
-      </c>
-      <c r="D9">
-        <v>196977</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>2711045</v>
-      </c>
-      <c r="G9">
-        <v>3363</v>
-      </c>
-      <c r="H9">
-        <v>8954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>79150</v>
-      </c>
-      <c r="C10">
-        <v>65073949</v>
-      </c>
-      <c r="D10">
-        <v>241260</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>2957907</v>
-      </c>
-      <c r="G10">
-        <v>3598</v>
-      </c>
-      <c r="H10">
-        <v>10966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>80327</v>
-      </c>
-      <c r="C11">
-        <v>64658513</v>
-      </c>
-      <c r="D11">
-        <v>224331</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>3078977</v>
-      </c>
-      <c r="G11">
-        <v>3825</v>
-      </c>
-      <c r="H11">
-        <v>10682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>80671</v>
-      </c>
-      <c r="C12">
-        <v>68248237</v>
-      </c>
-      <c r="D12">
-        <v>261408</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>3412412</v>
-      </c>
-      <c r="G12">
-        <v>4034</v>
-      </c>
-      <c r="H12">
-        <v>13070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>111104</v>
-      </c>
-      <c r="C13">
-        <v>99921882</v>
-      </c>
-      <c r="D13">
-        <v>363908</v>
-      </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>4541904</v>
-      </c>
-      <c r="G13">
-        <v>5050</v>
-      </c>
-      <c r="H13">
-        <v>16541</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CE/data/summary.xlsx
+++ b/CE/data/summary.xlsx
@@ -14,24 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>ВОЛЖСКИЙ ЭКСПРЕСС  Для физ.лиц</t>
+  </si>
+  <si>
+    <t>ВОЛЖСКИЙ ЭКСПРЕСС  склад-дверь до 0,5 кг</t>
+  </si>
+  <si>
+    <t>ВТОРИЧНАЯ ДОСТАВКА</t>
+  </si>
+  <si>
+    <t>ДОПЛАТА</t>
+  </si>
+  <si>
+    <t>ДОСТАВКА В ВУЗ  только для абитуриентов</t>
+  </si>
+  <si>
+    <t>ЛОЖНЫЙ ВЫЗОВ</t>
+  </si>
+  <si>
+    <t>ОПТИМА</t>
+  </si>
+  <si>
+    <t>ПРАЙМ</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 1 до 13:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 18:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 2 дня до 10:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 2 дня до 13:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 2 дня до 15:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 2 дня до 18:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ 2 дня до 18:00  спецпредложение</t>
+  </si>
+  <si>
+    <t>ПРАЙМ B</t>
+  </si>
+  <si>
+    <t>ПРАЙМ V</t>
+  </si>
+  <si>
+    <t>ПРАЙМ А</t>
+  </si>
+  <si>
+    <t>ПРАЙМ до 10:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ до 13:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ до 15:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ до 18:00</t>
+  </si>
+  <si>
+    <t>ПРАЙМ до 18:00  спецпредложение</t>
+  </si>
+  <si>
+    <t>СКЛАД</t>
+  </si>
+  <si>
+    <t>ЭКОНОМ  склад-склад</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС  Для физ.лиц</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС B</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС А</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС Груз</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС ДАЛЬНИЙ ВОСТОК  Для физ.лиц</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС Лайт</t>
+  </si>
+  <si>
+    <t>ЭКСПРЕСС возврат документов</t>
+  </si>
+  <si>
+    <t>ЮЖНЫЙ ЭКСПРЕСС  дверь-дверь</t>
+  </si>
+  <si>
+    <t>ЮЖНЫЙ ЭКСПРЕСС  дверь-склад</t>
+  </si>
+  <si>
+    <t>ЮЖНЫЙ ЭКСПРЕСС  склад-дверь</t>
+  </si>
   <si>
     <t>ФО</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>5-30</t>
-  </si>
-  <si>
-    <t>30-100</t>
-  </si>
-  <si>
-    <t>100+</t>
   </si>
   <si>
     <t>ДВФО</t>
@@ -410,13 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:37">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,166 +531,547 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>34</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>348</v>
-      </c>
-      <c r="D2">
-        <v>189</v>
-      </c>
-      <c r="E2">
-        <v>127</v>
-      </c>
-      <c r="F2">
-        <v>49</v>
-      </c>
-      <c r="G2">
+      <c r="H3">
+        <v>959</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <v>92</v>
+      </c>
+      <c r="T3">
+        <v>26</v>
+      </c>
+      <c r="U3">
+        <v>51</v>
+      </c>
+      <c r="V3">
+        <v>48</v>
+      </c>
+      <c r="W3">
+        <v>173</v>
+      </c>
+      <c r="AA3">
+        <v>489</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>1863</v>
+      </c>
+      <c r="AH3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>238</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>579</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
         <v>11</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>103</v>
+      </c>
+      <c r="T4">
+        <v>33</v>
+      </c>
+      <c r="U4">
+        <v>102</v>
+      </c>
+      <c r="V4">
+        <v>60</v>
+      </c>
+      <c r="W4">
+        <v>90</v>
+      </c>
+      <c r="AA4">
+        <v>2287</v>
+      </c>
+      <c r="AE4">
+        <v>21</v>
+      </c>
+      <c r="AG4">
+        <v>2244</v>
+      </c>
+      <c r="AH4">
+        <v>560</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>937</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>6525</v>
-      </c>
-      <c r="D3">
-        <v>2340</v>
-      </c>
-      <c r="E3">
-        <v>990</v>
-      </c>
-      <c r="F3">
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>164</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>288</v>
+      </c>
+      <c r="AA5">
+        <v>475</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AG5">
+        <v>1810</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>316</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>14</v>
+      </c>
+      <c r="U6">
+        <v>44</v>
+      </c>
+      <c r="V6">
+        <v>40</v>
+      </c>
+      <c r="W6">
+        <v>137</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>195</v>
+      </c>
+      <c r="AE6">
+        <v>9</v>
+      </c>
+      <c r="AG6">
+        <v>1158</v>
+      </c>
+      <c r="AH6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>370</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>4575</v>
+      </c>
+      <c r="I7">
+        <v>172</v>
+      </c>
+      <c r="J7">
         <v>115</v>
       </c>
-      <c r="G3">
-        <v>18</v>
+      <c r="K7">
+        <v>143</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>210</v>
+      </c>
+      <c r="Q7">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>73</v>
+      </c>
+      <c r="T7">
+        <v>155</v>
+      </c>
+      <c r="U7">
+        <v>156</v>
+      </c>
+      <c r="V7">
+        <v>445</v>
+      </c>
+      <c r="W7">
+        <v>905</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>42</v>
+      </c>
+      <c r="Z7">
+        <v>32</v>
+      </c>
+      <c r="AA7">
+        <v>6920</v>
+      </c>
+      <c r="AC7">
+        <v>15</v>
+      </c>
+      <c r="AD7">
+        <v>51</v>
+      </c>
+      <c r="AE7">
+        <v>54</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>5754</v>
+      </c>
+      <c r="AH7">
+        <v>908</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>386</v>
+      </c>
+      <c r="I8">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>10130</v>
-      </c>
-      <c r="D4">
-        <v>2325</v>
-      </c>
-      <c r="E4">
-        <v>796</v>
-      </c>
-      <c r="F4">
-        <v>94</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>27</v>
+      </c>
+      <c r="O8">
+        <v>69</v>
+      </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>46</v>
+      </c>
+      <c r="W8">
+        <v>108</v>
+      </c>
+      <c r="AA8">
+        <v>481</v>
+      </c>
+      <c r="AE8">
+        <v>19</v>
+      </c>
+      <c r="AG8">
+        <v>1395</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>14</v>
+      </c>
+      <c r="AJ8">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>7897</v>
-      </c>
-      <c r="D5">
-        <v>2304</v>
-      </c>
-      <c r="E5">
-        <v>903</v>
-      </c>
-      <c r="F5">
-        <v>140</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3534</v>
-      </c>
-      <c r="D6">
-        <v>1389</v>
-      </c>
-      <c r="E6">
-        <v>464</v>
-      </c>
-      <c r="F6">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>39886</v>
-      </c>
-      <c r="D7">
-        <v>14744</v>
-      </c>
-      <c r="E7">
-        <v>6870</v>
-      </c>
-      <c r="F7">
-        <v>629</v>
-      </c>
-      <c r="G7">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>4979</v>
-      </c>
-      <c r="D8">
-        <v>2017</v>
-      </c>
-      <c r="E8">
-        <v>689</v>
-      </c>
-      <c r="F8">
-        <v>99</v>
-      </c>
-      <c r="G8">
-        <v>26</v>
+      <c r="AK8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
